--- a/biology/Botanique/Anna_Amelia_Obermeyer/Anna_Amelia_Obermeyer.xlsx
+++ b/biology/Botanique/Anna_Amelia_Obermeyer/Anna_Amelia_Obermeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Amelia Obermeyer-Mauve (1907–2001) est une botaniste sud-africaine.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle effectue ses études à la Oost Eind School à Pretoria, jusqu'en 1925, puis intègre le Transvaal University College (actuellement Université de Pretoria), où elle obtient son B.Sc. en 1928 puis son M.Sc. en 1931[1]. Elle étudie notamment auprès du Professeur C.E.B. Bremekamp.
-En mai 1929 elle est nommée botaniste au Transvaal Museum, un poste qu'elle occupe jusqu'en août 1938, où elle épouse Anton Mauve, le mariage signifiant alors l'abandon d'une carrière professionnelle pour rester femme au foyer, ce qu'elle fait jusqu'au 1er décembre 1957 quand elle rejoint l'équipe du National Herbarium, qui récupère les collections botaniques du Transvaal Museum en 1953[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle effectue ses études à la Oost Eind School à Pretoria, jusqu'en 1925, puis intègre le Transvaal University College (actuellement Université de Pretoria), où elle obtient son B.Sc. en 1928 puis son M.Sc. en 1931. Elle étudie notamment auprès du Professeur C.E.B. Bremekamp.
+En mai 1929 elle est nommée botaniste au Transvaal Museum, un poste qu'elle occupe jusqu'en août 1938, où elle épouse Anton Mauve, le mariage signifiant alors l'abandon d'une carrière professionnelle pour rester femme au foyer, ce qu'elle fait jusqu'au 1er décembre 1957 quand elle rejoint l'équipe du National Herbarium, qui récupère les collections botaniques du Transvaal Museum en 1953.
 Après une première pause en 1972, elle prend sa retraite en 1985.
 </t>
         </is>
@@ -544,16 +558,18 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anna Amelia Obermeyer travaille à l'Institut de Recherche Botanique de Pretoria[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anna Amelia Obermeyer travaille à l'Institut de Recherche Botanique de Pretoria. 
 Au Transvaal Museum, elle travaille principalement sur les Acanthaceae, produisant des révisions de Barleria, Blepharis et Petalidium. Par ailleurs, elle décrit une importante collection de plantes de l'expédition Vemay-Lang dans le Kalahari et de celle d'Herbert Lang dans le Kruger National Park. Elle participe avec le Prof. Schweickerdt et Miss Verdoom à une expédition dans le Soutpansberg Salt Pan, et c'est elle qui dirige les publications résultant des spécimens collectés. D'autres collectes ont lieu hors d'Afrique du Sud, notamment en Rhodésie.
 Elle donne son nom à plusieurs espèces :
-Crassulaceae : Cotyledon obermeyeriana Poelln.[4]
+Crassulaceae : Cotyledon obermeyeriana Poelln.
 Hemizygia obermeyerae, Ashby
 Asparagus obermeyerae, Jessop
 Barleria ameliae, A.Meeuse
-Lachenalia ameliae, W.F. Barker[1]</t>
+Lachenalia ameliae, W.F. Barker</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Obermeyer, AA. 1959. Petalidium bracteatum.Flowering Plants of Africa (en) 33: t. 1317
 Lewis, GJ, Obermeyer AA, Barnard TT. 1972.Gladiolus; a revision of the South African species. Ed Purnell, Cape Town. xxxi + 316 pp.  (ISBN 0-360-00155-6)
